--- a/project/BurndownTemplate.xlsx
+++ b/project/BurndownTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t xml:space="preserve">Product backlog item  </t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Just copy a row to make a new one</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Daniela</t>
   </si>
 </sst>
 </file>
@@ -164,12 +173,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1660,7 +1671,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L3" sqref="L3:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,32 +1781,35 @@
         <v>116</v>
       </c>
       <c r="E3" s="25">
-        <f>D$3-$D$2/7</f>
+        <f t="shared" ref="E3:K3" si="1">D$3-$D$2/7</f>
         <v>99.428571428571431</v>
       </c>
       <c r="F3" s="25">
-        <f>E$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>82.857142857142861</v>
       </c>
       <c r="G3" s="25">
-        <f>F$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>66.285714285714292</v>
       </c>
       <c r="H3" s="25">
-        <f>G$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>49.714285714285722</v>
       </c>
       <c r="I3" s="25">
-        <f>H$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>33.142857142857153</v>
       </c>
       <c r="J3" s="25">
-        <f>I$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>16.57142857142858</v>
       </c>
       <c r="K3" s="25">
-        <f>J$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1812,32 +1826,39 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <f>D4</f>
+        <f t="shared" ref="E4:E16" si="2">D4</f>
         <v>8</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:K4" si="1">E4</f>
+        <f t="shared" ref="F4:K4" si="3">E4</f>
         <v>8</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(C4:C18, L4, D4:D18)</f>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1854,32 +1875,39 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F2:K16" si="2">E5</f>
+        <f t="shared" ref="F5:K16" si="4">E5</f>
         <v>9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <f>SUMIF(C5:C19, L5, D5:D19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1896,32 +1924,39 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <f>SUMIF(C6:C20, L6, D6:D20)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1938,31 +1973,31 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -1980,31 +2015,31 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2022,31 +2057,31 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <f>D9</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2064,31 +2099,31 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <f>D10</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2106,31 +2141,31 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f>D11</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2148,31 +2183,31 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f>D12</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2190,31 +2225,31 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f>D13</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2232,31 +2267,31 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <f>D14</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2274,31 +2309,31 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f>D15</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2316,31 +2351,31 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
